--- a/scrapy/cvedetails_all/cvedetails/plugins_data/excel/重点应用分类.xlsx
+++ b/scrapy/cvedetails_all/cvedetails/plugins_data/excel/重点应用分类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="插件责任人分配" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="198">
   <si>
     <t>操作系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>Debian</t>
-  </si>
-  <si>
-    <t>Debian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -687,6 +684,38 @@
   </si>
   <si>
     <t>卢伟伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debian Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Openssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libressl</t>
+  </si>
+  <si>
+    <t>openssl openssl</t>
+  </si>
+  <si>
+    <t>readhat openssl</t>
+  </si>
+  <si>
+    <t>openssl project openssl</t>
+  </si>
+  <si>
+    <t>openssl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,9 +856,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -847,6 +873,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +894,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1175,7 +1215,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1186,7 +1226,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1235,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1244,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1213,7 +1253,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1262,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1271,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1280,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1289,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1298,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1269,7 +1309,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1318,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1287,7 +1327,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1336,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1305,7 +1345,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1354,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1325,7 +1365,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1374,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1343,7 +1383,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1352,7 +1392,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1401,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1370,7 +1410,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1419,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1388,7 +1428,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1437,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,7 +1446,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1455,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,16 +1464,16 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1444,7 +1484,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -1453,7 +1493,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1462,7 +1502,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1511,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1482,7 +1522,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +1531,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1500,7 +1540,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1509,7 +1549,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1558,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1527,7 +1567,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1536,7 +1576,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1545,7 +1585,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1554,7 +1594,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="5"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1581,39 +1621,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1624,17 +1664,17 @@
       <c r="B2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>11366</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>68</v>
@@ -1647,17 +1687,17 @@
       <c r="B3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>17153</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
@@ -1670,17 +1710,17 @@
       <c r="B4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>9591</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>68</v>
@@ -1693,17 +1733,17 @@
       <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>23546</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>68</v>
@@ -1716,17 +1756,17 @@
       <c r="B6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>739</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>68</v>
@@ -1739,17 +1779,17 @@
       <c r="B7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>26434</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>68</v>
@@ -1762,17 +1802,17 @@
       <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>32238</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
+      <c r="E8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>68</v>
@@ -1785,17 +1825,17 @@
       <c r="B9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>26435</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>68</v>
@@ -1808,17 +1848,17 @@
       <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>107</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>26</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>68</v>
@@ -1831,17 +1871,17 @@
       <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>34965</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>109</v>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>68</v>
@@ -1854,17 +1894,17 @@
       <c r="B12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>2594</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>26</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>68</v>
@@ -1879,677 +1919,784 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>92</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>18579</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>9575</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>34242</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>33566</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>11168</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>9325</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>7</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="6">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1251</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="B11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6">
+        <v>79</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="7">
-        <v>79</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="C12" s="6">
+        <v>78</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="7">
-        <v>78</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="C13" s="6">
+        <v>24639</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="7">
-        <v>24639</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="C14" s="6">
+        <v>24640</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="7">
-        <v>24640</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="C15" s="6">
+        <v>25167</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="7">
-        <v>25167</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="C16" s="6">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="7">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="C17" s="6">
+        <v>25627</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="7">
-        <v>25627</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="B18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="6">
+        <v>14195</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="6">
+        <v>40865</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="7">
-        <v>14195</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="B20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="6">
+        <v>33567</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="7">
-        <v>40865</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="B21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20550</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="7">
-        <v>33567</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="2" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="6">
+        <v>80</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="7">
-        <v>20550</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="6">
+        <v>18131</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="7">
-        <v>80</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="2" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3671</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="7">
-        <v>18131</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="2" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="6">
+        <v>404</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="10" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1427</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="6">
+        <v>14516</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3671</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="B28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3424</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="7">
-        <v>404</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="2" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="6">
+        <v>251</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1427</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="6">
+        <v>316</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="7">
-        <v>14516</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="2" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="6">
+        <v>21801</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3424</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="2" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="6">
+        <v>585</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="7">
-        <v>251</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="2" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="6">
+        <v>30688</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="7">
-        <v>316</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="2" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="6">
+        <v>383</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="7">
-        <v>21801</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="2" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3966</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="6">
+        <v>13982</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2564,267 +2711,267 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3436</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3436</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
         <v>45</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>119</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="7">
+        <v>111</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="6">
         <v>4096</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2838,439 +2985,437 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7">
+        <v>127</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
+        <v>128</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
         <v>874</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
+        <v>129</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
         <v>5979</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>315</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
+        <v>131</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
         <v>11971</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>136</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>136</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
+        <v>133</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>3080</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
+      <c r="E8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+        <v>134</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>15054</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>25464</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="7">
+        <v>137</v>
+      </c>
+      <c r="C11" s="6">
         <v>25334</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>109</v>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="C12" s="6">
         <v>25461</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="7">
+        <v>139</v>
+      </c>
+      <c r="C13" s="6">
         <v>24230</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="7">
+        <v>140</v>
+      </c>
+      <c r="C14" s="6">
         <v>25463</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>109</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="7">
+        <v>141</v>
+      </c>
+      <c r="C15" s="6">
         <v>25465</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>109</v>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="7">
+        <v>142</v>
+      </c>
+      <c r="C16" s="6">
         <v>25462</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="7">
+        <v>143</v>
+      </c>
+      <c r="C17" s="6">
         <v>25459</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="7">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6">
         <v>25460</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="7">
+        <v>145</v>
+      </c>
+      <c r="C19" s="6">
         <v>24530</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="6">
+        <v>24549</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C20" s="7">
-        <v>24549</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3291,684 +3436,684 @@
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="7">
+        <v>148</v>
+      </c>
+      <c r="C2" s="6">
         <v>22215</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>109</v>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="7">
+        <v>149</v>
+      </c>
+      <c r="C3" s="6">
         <v>22217</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>109</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>27453</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="7">
+        <v>153</v>
+      </c>
+      <c r="C5" s="6">
         <v>14180</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="C6" s="6">
         <v>22134</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>109</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="7">
+        <v>156</v>
+      </c>
+      <c r="C7" s="6">
         <v>12196</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="7">
+        <v>157</v>
+      </c>
+      <c r="C8" s="6">
         <v>12750</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="7">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6">
         <v>14092</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>109</v>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="7">
+        <v>159</v>
+      </c>
+      <c r="C10" s="6">
         <v>15065</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>109</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="7">
+        <v>160</v>
+      </c>
+      <c r="C11" s="6">
         <v>23463</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>109</v>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="7">
+        <v>162</v>
+      </c>
+      <c r="C12" s="6">
         <v>14577</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>109</v>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="7">
+        <v>163</v>
+      </c>
+      <c r="C13" s="6">
         <v>48142</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>109</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6560</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6560</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14181</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="7">
-        <v>14181</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="6">
+        <v>22176</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22176</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="6">
+        <v>14147</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14147</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="6">
+        <v>35455</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C18" s="7">
-        <v>35455</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6561</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6561</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7928</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7928</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="6">
+        <v>28398</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="7">
-        <v>28398</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="6">
+        <v>20517</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="7">
-        <v>20517</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="6">
+        <v>23748</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="7">
-        <v>23748</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="6">
+        <v>22135</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="7">
-        <v>22135</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9264</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9264</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="6">
+        <v>12342</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="7">
-        <v>12342</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="6">
+        <v>12343</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="7">
-        <v>12343</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="6">
+        <v>12155</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="7">
-        <v>12155</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="6">
+        <v>33501</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="7">
-        <v>33501</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="6">
+        <v>436</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="7">
-        <v>436</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="6">
+        <v>34392</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="7">
-        <v>34392</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="6">
+        <v>34391</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="7">
-        <v>34391</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
